--- a/data/income_statement/2digits/total/10_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/10_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>10-Manufacture of food products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>10-Manufacture of food products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,641 +841,726 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>78845734.59078</v>
+        <v>78845734.59077999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>91792581.19621001</v>
+        <v>91840689.64063001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>113452346.27171</v>
+        <v>113493992.54263</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>125827882.69276</v>
+        <v>126274911.51996</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>139859373.46318</v>
+        <v>142698585.84594</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>164850887.26645</v>
+        <v>169695378.95501</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>177898880.60243</v>
+        <v>189701179.89743</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>197772790.20535</v>
+        <v>209439096.03781</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>246379249.57675</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>304885962.82038</v>
+        <v>304980146.65506</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>369188911.1984999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>370717656.52982</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>456869258.694</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>67650541.12965</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>79717021.28417997</v>
+        <v>79763747.30843998</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>96205207.76778997</v>
+        <v>96244256.24795997</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>106745645.35151</v>
+        <v>106929213.40061</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>118363364.90715</v>
+        <v>120136800.79354</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>137364108.89998</v>
+        <v>141021946.46961</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>149452534.62956</v>
+        <v>158444881.79817</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>167060661.2294</v>
+        <v>174717580.58152</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>203481141.8703701</v>
+        <v>203481141.87037</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>248180949.81385</v>
+        <v>248268265.79299</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>300901817.58872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>301998650.17809</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>366469985.551</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>10186144.06282</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>11206717.3193</v>
+        <v>11207704.57302</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15985050.13207</v>
+        <v>15987195.22181</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>17767191.28236</v>
+        <v>18021862.31562</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>20187119.88672001</v>
+        <v>21233283.98707</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>26028192.40894</v>
+        <v>27180631.32716</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>26925763.38111</v>
+        <v>29651401.73507</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>28692309.43581</v>
+        <v>32644585.57844</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>40635160.57789999</v>
+        <v>40635160.5779</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>53681706.16407</v>
+        <v>53687159.84956</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>64517208.60145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>64929241.53148001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>85622049.03399999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1009049.39831</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>868842.5927300001</v>
+        <v>869237.75917</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1262088.37185</v>
+        <v>1262541.07286</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1315046.05889</v>
+        <v>1323835.80373</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1308888.66931</v>
+        <v>1328501.06533</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1458585.95753</v>
+        <v>1492801.15824</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1520582.59176</v>
+        <v>1604896.36419</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2019819.54014</v>
+        <v>2076929.87785</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>2262947.12848</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3023306.842459999</v>
+        <v>3024721.01251</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3769885.00833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3789764.82025</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4777224.109</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7078662.39887</v>
+        <v>7078662.398870001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7901062.36916</v>
+        <v>7922413.181650001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8705063.623019999</v>
+        <v>8724169.522839999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9245542.621239999</v>
+        <v>9259311.930289999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>9483990.405069998</v>
+        <v>9887901.779990001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10734203.11026</v>
+        <v>11231099.7377</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11848876.10807</v>
+        <v>12629510.78327</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>13673850.60517</v>
+        <v>14176152.53505</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>15646536.75935</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23026121.20157</v>
+        <v>23026993.27811</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>24838860.70094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>24865848.57378</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>28154846.986</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1552247.37706</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1933231.8574</v>
+        <v>1946144.92076</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2162219.072529999</v>
+        <v>2171030.5662</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2591167.60952</v>
+        <v>2596299.22847</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2292233.96659</v>
+        <v>2344170.29596</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2785019.27825</v>
+        <v>2856583.47571</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2849049.38908</v>
+        <v>2973502.17252</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3495768.45822</v>
+        <v>3601047.531609999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>3787832.7988</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8796911.223890001</v>
+        <v>8797542.376580002</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6436281.03472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6462055.13612</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>6848625.514</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>5272399.329600001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5587587.458</v>
+        <v>5591960.46201</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6118390.23318</v>
+        <v>6122135.62622</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6132872.40035</v>
+        <v>6140839.60441</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6704111.70183</v>
+        <v>7049734.730950002</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7490550.67058</v>
+        <v>7906433.955669999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8527754.90285</v>
+        <v>9145560.221160002</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9634196.593200002</v>
+        <v>9990657.734949999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>11142649.59613</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>13234393.14444</v>
+        <v>13234615.84123</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>17328515.9479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17328335.7275</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>20023909.114</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>254015.69221</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>380243.05376</v>
+        <v>384307.79888</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>424454.3173100001</v>
+        <v>431003.33042</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>521502.61137</v>
+        <v>522173.09741</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>487644.73665</v>
+        <v>493996.7530800001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>458633.1614300001</v>
+        <v>468082.30632</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>472071.81614</v>
+        <v>510448.3895899999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>543885.5537500001</v>
+        <v>584447.26849</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>716054.3644199999</v>
+        <v>716054.3644200001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>994816.8332400001</v>
+        <v>994835.0603000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1074063.71832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1075457.71016</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1282312.358</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>71767072.19190998</v>
+        <v>71767072.19191</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>83891518.82705</v>
+        <v>83918276.45897999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>104747282.64869</v>
+        <v>104769823.01979</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>116582340.07152</v>
+        <v>117015599.58967</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>130375383.05811</v>
+        <v>132810684.06595</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>154116684.15619</v>
+        <v>158464279.21731</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>166050004.49436</v>
+        <v>177071669.11416</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>184098939.60018</v>
+        <v>195262943.50276</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>230732712.8174</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>281859841.61881</v>
+        <v>281953153.37695</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>344350050.49756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>345851807.95604</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>428714411.708</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>60049899.5101</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>71352435.96534999</v>
+        <v>71373782.56990999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>89864645.35680002</v>
+        <v>89886841.35807002</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>99852813.82113999</v>
+        <v>100236443.5585</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>111138425.05503</v>
+        <v>113089372.21672</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>132393377.96521</v>
+        <v>135519425.5038</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>141602958.12969</v>
+        <v>150201867.40489</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>155230908.9392</v>
+        <v>164780989.6298201</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>194869437.70368</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>237426022.98322</v>
+        <v>237508124.69213</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>291475751.7695701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>292819581.3737301</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>364376990.726</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>49251028.41204999</v>
+        <v>49251028.41205</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>59260890.91444001</v>
+        <v>59277771.27410001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>74870700.13681002</v>
+        <v>74888560.99839999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>84568253.01914999</v>
+        <v>84875216.76015</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>93833935.12505001</v>
+        <v>95555337.30290999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>111299749.88939</v>
+        <v>114087789.22317</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>120822663.74988</v>
+        <v>127551643.58965</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>129165910.13512</v>
+        <v>137919453.62325</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>160750645.42799</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>198979871.80438</v>
+        <v>199026858.19625</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>243191899.74948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>244693520.81363</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>302622499.204</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>9580961.760199999</v>
+        <v>9580961.760200001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>10749030.04828</v>
+        <v>10752940.69546</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>13297726.63595</v>
+        <v>13300930.85215</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>13526485.90417</v>
+        <v>13603122.09825</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>15214068.2372</v>
+        <v>15436686.24174</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>19019359.85552</v>
+        <v>19273823.81152</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>18393917.5991</v>
+        <v>20123094.68767</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>23227425.43793</v>
+        <v>23865943.53264001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>30063148.21244</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>33477642.8516</v>
+        <v>33509991.97178</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>42081658.36511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>42205977.47352999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>54189560.749</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>403616.51525</v>
+        <v>403616.5152500001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>494772.2996300001</v>
+        <v>494840.03084</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>563874.4381199999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>633916.36645</v>
+        <v>633946.1687299999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>709012.1974600001</v>
+        <v>711295.3942900001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>820350.5131399999</v>
+        <v>863199.6856900001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>988818.3534899999</v>
+        <v>1030163.32855</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1185340.13094</v>
+        <v>1200683.35165</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1571494.69125</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2074838.61787</v>
+        <v>2076529.95696</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2611243.318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2327669.21367</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2486356.997</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>814292.8226</v>
+        <v>814292.8226000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>847742.703</v>
+        <v>848230.5695099999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1132344.14592</v>
+        <v>1133475.0694</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>1124158.53137</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1381409.49532</v>
+        <v>1386053.27778</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1253917.70716</v>
+        <v>1294612.78342</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1397558.42722</v>
+        <v>1496965.79902</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1652233.23521</v>
+        <v>1794909.12228</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>2484149.372</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2893669.70937</v>
+        <v>2894744.56714</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3590950.33698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3592413.8729</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5078573.776</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>11717172.68181</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>12539082.8617</v>
+        <v>12544493.88907</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>14882637.29189</v>
+        <v>14882981.66172</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>16729526.25038</v>
+        <v>16779156.03117</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>19236958.00308</v>
+        <v>19721311.84923</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>21723306.19098</v>
+        <v>22944853.71351</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>24447046.36467</v>
+        <v>26869801.70927001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>28868030.66098</v>
+        <v>30481953.87294</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>35863275.11371999</v>
+        <v>35863275.11372</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>44433818.63559</v>
+        <v>44445028.68482</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>52874298.72799001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>53032226.58231001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>64337420.982</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>7884932.361460001</v>
+        <v>7884932.361459999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9122954.568329999</v>
+        <v>9133532.76561</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>10557164.44426</v>
+        <v>10564875.31751</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11958379.77179</v>
+        <v>11994348.07518</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>13749829.32094</v>
+        <v>13985612.13891</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>14872013.9433</v>
+        <v>15739811.49416</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>15946437.05974</v>
+        <v>17609035.29026</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>18492350.28204999</v>
+        <v>19152031.00440999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>21733466.79451</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>26311065.23358</v>
+        <v>26341660.51335</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>31001000.39502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>31137209.77764</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>36510730.558</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>98568.82441</v>
+        <v>98568.82441000002</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>129941.39042</v>
@@ -1583,229 +1569,259 @@
         <v>138744.952</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>180882.14461</v>
+        <v>181195.62696</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>232719.77397</v>
+        <v>234833.17403</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>248212.58889</v>
+        <v>258892.88948</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>258590.07575</v>
+        <v>272010.7648199999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>276548.05837</v>
+        <v>298997.03336</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>274841.39918</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>284660.7731699999</v>
+        <v>285778.23278</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>353867.0076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>353140.83362</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>351420.324</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5141562.987740001</v>
+        <v>5141562.987739999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6023754.439669999</v>
+        <v>6031969.328229999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6902726.212510001</v>
+        <v>6907874.438390001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7764867.493969998</v>
+        <v>7792502.021110001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9050036.911559999</v>
+        <v>9238053.58876</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9598220.635049999</v>
+        <v>10289357.64926</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10311110.78747</v>
+        <v>11477871.08618</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>12027604.86941</v>
+        <v>12371134.62477</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>14071060.76676</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>17020564.08265</v>
+        <v>17023642.45046</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20119461.19927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20173212.39507</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>23728020.663</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2644800.54931</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2969258.73824</v>
+        <v>2971622.04696</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3515693.27975</v>
+        <v>3518255.92712</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4012630.133210001</v>
+        <v>4020650.42711</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4467072.63541</v>
+        <v>4512725.376119999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5025580.71936</v>
+        <v>5191560.95542</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5376736.196520001</v>
+        <v>5859153.439259999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>6188197.35427</v>
+        <v>6481899.34628</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>7387564.62857</v>
+        <v>7387564.628570001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>9005840.377759999</v>
+        <v>9032239.83011</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10527672.18815</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10610856.54895</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>12431289.571</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>3832240.32035</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3416128.29337</v>
+        <v>3410961.123459999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4325472.84763</v>
+        <v>4318106.34421</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4771146.47859</v>
+        <v>4784807.955989999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5487128.68214</v>
+        <v>5735699.710320001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>6851292.247679999</v>
+        <v>7205042.219350001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8500609.30493</v>
+        <v>9260766.419009998</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>10375680.37893</v>
+        <v>11329922.86853</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>14129808.31921</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>18122753.40201</v>
+        <v>18103368.17147</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>21873298.33297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21895016.80467</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>27826690.424</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3119778.235479999</v>
+        <v>3119778.23548</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2641294.64953</v>
+        <v>2641597.15876</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3332231.830880001</v>
+        <v>3332417.72723</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3527344.59508</v>
+        <v>3534634.58656</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3266607.900189999</v>
+        <v>3356802.132410001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4840834.831540001</v>
+        <v>4969630.704899999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5516203.013820001</v>
+        <v>6096757.151719999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6061186.96812</v>
+        <v>6548839.341189999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8412314.84087</v>
+        <v>8412314.840869999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>20697161.69374001</v>
+        <v>20848125.63215</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>19178279.52736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19270865.96491</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>25562707.885</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>68436.31329999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>89388.3199</v>
+        <v>89388.31989999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>66879.16245</v>
+        <v>66879.16244999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>115466.87361</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>98842.06605999998</v>
+        <v>98842.06606</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>69534.94772000001</v>
+        <v>69534.94772</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>110275.03484</v>
+        <v>110354.54287</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>183862.43525</v>
+        <v>247882.5764</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>285828.26325</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>268493.7198</v>
+        <v>281250.98638</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5782249.97408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>5781735.60983</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>177271.385</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>380629.68492</v>
@@ -1814,7 +1830,7 @@
         <v>346409.88887</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>435698.30909</v>
+        <v>435698.3090899999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>531228.7162500001</v>
@@ -1823,67 +1839,77 @@
         <v>83168.75623</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>84572.89077000001</v>
+        <v>99593.89719000002</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>56203.89097999999</v>
+        <v>62214.39419</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>135226.85818</v>
+        <v>140922.14461</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>174152.06039</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>356924.43864</v>
+        <v>368724.43864</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>282387.34775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>307248.1074</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>133479.092</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>289736.16603</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>247584.46618</v>
+        <v>247586.47516</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>287087.29991</v>
+        <v>287088.0772699999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>294604.2503000001</v>
+        <v>294767.98892</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>287811.77361</v>
+        <v>289282.7689</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>354787.85572</v>
+        <v>366477.47696</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>451519.86601</v>
+        <v>490172.4663799999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>502170.63354</v>
+        <v>652683.5340700001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1060395.52991</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1774182.55509</v>
+        <v>1782324.53726</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2590667.914950001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2595340.86699</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2210021.146</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3531.72972</v>
@@ -1898,70 +1924,80 @@
         <v>4380.620370000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6113.54052</v>
+        <v>6218.42366</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>17684.81744</v>
+        <v>17893.29314</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>31029.18554</v>
+        <v>31058.14658</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>24650.11663</v>
+        <v>25909.6551</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>29893.53715</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>53740.10738</v>
+        <v>53925.07468</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>78261.21527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>78349.20713</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>85896.327</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>48382.25366</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>46671.535</v>
+        <v>46671.53499999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>148324.47803</v>
+        <v>148386.3345</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>42548.89928</v>
+        <v>42589.8208</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>57396.83927</v>
+        <v>57582.22411</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>42548.64151</v>
+        <v>42761.33328000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>44710.06218000001</v>
+        <v>45940.63495</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>41196.43132</v>
+        <v>43181.03039</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>50739.39613000001</v>
+        <v>50739.39613</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>79320.89749999999</v>
+        <v>79320.89750000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>133790.55265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>133488.66686</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>130129.839</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>13304.50501</v>
@@ -1970,76 +2006,86 @@
         <v>14907.42346</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>17706.47746</v>
+        <v>17708.23206</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>39344.91566000001</v>
+        <v>39422.87236</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>41634.33365000001</v>
+        <v>41641.42137000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>93843.10227999999</v>
+        <v>93843.10228000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>42987.79665</v>
+        <v>43465.77543</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>20454.95175</v>
+        <v>20684.49254</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>46972.96304</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>183709.86287</v>
+        <v>183721.39958</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>287263.51444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>286843.85749</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2122182.349</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1817656.42792</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1408524.89367</v>
+        <v>1408824.43692</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1780849.90593</v>
+        <v>1780942.95074</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1886130.89436</v>
+        <v>1893003.422</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1869525.22066</v>
+        <v>1956519.5486</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3339343.23194</v>
+        <v>3438628.23593</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3946433.33856</v>
+        <v>4380909.8273</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4150544.862250001</v>
+        <v>4361490.13389</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5467289.375229999</v>
+        <v>5467289.37523</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>16241254.22008</v>
+        <v>16356771.52965</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8333322.56139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8374199.518949999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>18451280.542</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>21573.26177</v>
@@ -2057,13 +2103,13 @@
         <v>16454.4845</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>17519.12214</v>
+        <v>17773.026</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>18785.50451</v>
+        <v>19165.25927</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>36649.38185000001</v>
+        <v>36751.27639000001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>28789.53986</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>73818.35363</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>40312.353</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>467.21419</v>
@@ -2093,13 +2144,13 @@
         <v>3870.15442</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>855.08501</v>
+        <v>869.26125</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>64496.85469</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>640.55731</v>
+        <v>640.5573099999999</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>196.15085</v>
@@ -2108,94 +2159,109 @@
         <v>1877.45823</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>303.5666000000001</v>
+        <v>303.5666</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>2513.39066</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1019.83</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>476060.67896</v>
+        <v>476060.6789600001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>467034.48678</v>
+        <v>467035.4437799999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>568051.3781999999</v>
+        <v>568079.84131</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>594417.97367</v>
+        <v>594552.82067</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>804805.80068</v>
+        <v>806223.17773</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>756503.36733</v>
+        <v>758628.5377099999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>813617.77724</v>
+        <v>912835.5474399998</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>966235.1465</v>
+        <v>1019138.34695</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1266376.71768</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1694291.04909</v>
+        <v>1696841.92517</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1614004.70254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1637328.38597</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2211115.022</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2051088.50229</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1587226.86062</v>
+        <v>1588972.49805</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2371920.302680001</v>
+        <v>2373100.336440001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1858287.04854</v>
+        <v>1867548.69447</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3130887.61581</v>
+        <v>3215369.00394</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3545454.061209999</v>
+        <v>3633576.18411</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4956036.56146</v>
+        <v>5617896.500690001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5636615.010639999</v>
+        <v>5876820.47244</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>6988830.44473</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>19023847.18572</v>
+        <v>19116143.83611999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>10588880.87242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10660893.01695</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>22535735.546</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>14023.74972</v>
@@ -2207,73 +2273,83 @@
         <v>22933.36151</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>36864.01245</v>
+        <v>36983.86053</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>30289.85669</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>33450.13735</v>
+        <v>33455.09239</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>47062.05306000001</v>
+        <v>47367.67611</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>20846.44553</v>
+        <v>30476.44626</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>48295.81360999999</v>
+        <v>48295.81361</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>120313.91754</v>
+        <v>120325.50031</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>79421.86688000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>79666.82456000002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>62741.512</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>170901.41331</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>143193.71955</v>
+        <v>143827.86926</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>90009.36605</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>148759.58275</v>
+        <v>149177.5729</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>168724.04547</v>
+        <v>170349.78245</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>193884.01999</v>
+        <v>197320.36703</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>208480.60594</v>
+        <v>230084.14255</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>263755.43475</v>
+        <v>285616.78188</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>269429.57527</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>414808.96431</v>
+        <v>415521.14489</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>411773.05184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>412392.38935</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>539957.504</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>8574.87731</v>
@@ -2285,73 +2361,83 @@
         <v>13534.09113</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>24243.3429</v>
+        <v>24680.48477</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>33710.24525999999</v>
+        <v>33710.24526</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>116835.52222</v>
+        <v>116936.26291</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>3190.731</v>
+        <v>3256.88413</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>35042.08652</v>
+        <v>35049.65166999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7197.30461</v>
+        <v>7197.304609999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>21407.294</v>
+        <v>21413.64994</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>107022.66141</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1690682.233</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1567570.35375</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1137460.86513</v>
+        <v>1137688.79357</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1940477.39589</v>
+        <v>1940640.38578</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1260126.04794</v>
+        <v>1268412.71375</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2478249.87046</v>
+        <v>2556954.49408</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2725235.44446</v>
+        <v>2809100.50476</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4322506.518369999</v>
+        <v>4900890.792099999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4762385.656049999</v>
+        <v>4951474.063650001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6065380.7279</v>
+        <v>6065380.727899998</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>17556804.09306</v>
+        <v>17647225.24606</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9071184.494829999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9139147.181879999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>18758600.691</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>16822.50461</v>
@@ -2366,16 +2452,16 @@
         <v>17302.99798</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>33008.47568</v>
+        <v>33150.77954</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>21163.26471</v>
+        <v>21316.33163</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>19816.06934</v>
+        <v>19978.81734000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>38988.65795999999</v>
+        <v>39091.19165</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>30941.7298</v>
@@ -2384,13 +2470,18 @@
         <v>64883.04288</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>58804.89395999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>58804.89396</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>51709.277</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>197.73805</v>
@@ -2399,10 +2490,10 @@
         <v>1083.46226</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>846.2857999999999</v>
+        <v>846.2858</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>182.2687200000001</v>
+        <v>182.26872</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>913.0685900000001</v>
@@ -2414,7 +2505,7 @@
         <v>298.30533</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>307.59561</v>
+        <v>307.5956100000001</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>149.61073</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>418.09803</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>370.829</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>272997.86554</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>255450.74751</v>
+        <v>256334.3067899999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>287700.76529</v>
+        <v>288717.8091599999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>370808.7958</v>
+        <v>370808.7958199999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>385992.05366</v>
+        <v>390000.7773300001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>450069.26381</v>
+        <v>450631.21672</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>354682.2784199999</v>
+        <v>416019.88313</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>515289.1342199999</v>
+        <v>534804.7417199999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>567435.68281</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>845425.2674700001</v>
+        <v>846570.6455799999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>860255.8054699999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>863440.96776</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1431673.5</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1767914.36618</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1691335.38635</v>
+        <v>1693096.85816</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3153577.98688</v>
+        <v>3156813.68408</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2339412.30371</v>
+        <v>2341284.00013</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3571298.56829</v>
+        <v>3604295.34521</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4374868.793130001</v>
+        <v>4430343.75847</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5499394.879430001</v>
+        <v>5727487.0341</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6000750.527630002</v>
+        <v>6348268.932860001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>7828251.315520001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>14028186.27011</v>
+        <v>14036098.99752</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13030470.34465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>13069129.62461</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>14422112.19</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1472510.59003</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1368479.1535</v>
+        <v>1370240.62531</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2367879.3935</v>
+        <v>2371115.0907</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2041490.65324</v>
+        <v>2042767.56252</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3134134.30999</v>
+        <v>3159906.58306</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3952765.637219999</v>
+        <v>4003983.57015</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4935930.122170001</v>
+        <v>5136922.04603</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5456249.338900001</v>
+        <v>5783125.670670001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>7248360.477719999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>12611451.69693</v>
+        <v>12619288.77524</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11819242.27869</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11847460.09118</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13165832.672</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>295403.7761499999</v>
+        <v>295403.77615</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>322856.23285</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>785698.5933799999</v>
+        <v>785698.59338</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>297921.6504700001</v>
+        <v>298516.4376100001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>437164.2583</v>
+        <v>444388.76215</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>422103.15591</v>
+        <v>426360.18832</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>563464.75726</v>
+        <v>590564.9880700001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>544501.1887299999</v>
+        <v>565143.2621899999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>579890.8378</v>
+        <v>579890.8378000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1416734.57318</v>
+        <v>1416810.22228</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1211228.06596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1221669.53343</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1256279.518</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3133015.68736</v>
+        <v>3133015.687360001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2778860.69593</v>
+        <v>2770488.926010001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2132206.38895</v>
+        <v>2120610.05092</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4100791.721419999</v>
+        <v>4110609.84795</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2051550.39823</v>
+        <v>2272837.49358</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3771804.224879999</v>
+        <v>4110752.98167</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3561380.877859999</v>
+        <v>4012140.035939999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4799501.808780001</v>
+        <v>5653672.804420001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>7725041.39983</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5767881.639920001</v>
+        <v>5799250.96998</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17432226.64326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>17435860.12802</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>16431550.573</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>396282.51043</v>
+        <v>396282.5104300001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>715013.56172</v>
+        <v>715269.4334799999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1300835.66664</v>
+        <v>1301855.31823</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>690135.72</v>
+        <v>691148.71068</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1031368.26875</v>
+        <v>1049295.82743</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1642589.03096</v>
+        <v>1678754.11505</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1037354.69205</v>
+        <v>1167012.53636</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1201311.55948</v>
+        <v>1517464.74148</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1787556.04672</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2260878.74603</v>
+        <v>2280800.906320001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2169124.85042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2181107.31078</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4089776.425</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>25974.15151</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>45532.03703</v>
+        <v>45577.36114</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>26087.9708</v>
+        <v>26305.02046</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>35544.89849</v>
+        <v>35622.28163999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>54007.26276000001</v>
+        <v>67093.23954</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>75283.95087</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>32153.86465</v>
+        <v>38510.56677000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>20421.81622</v>
+        <v>22020.04148</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>53757.61201999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>42214.20735</v>
+        <v>42608.30508</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>145335.76262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>145368.69933</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>132456.192</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>370308.35892</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>669481.52469</v>
+        <v>669692.07234</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1274747.69584</v>
+        <v>1275550.29777</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>654590.8215100002</v>
+        <v>655526.4290400001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>977361.0059899999</v>
+        <v>982202.5878900001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1567305.08009</v>
+        <v>1603470.16418</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1005200.8274</v>
+        <v>1128501.96959</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1180889.74326</v>
+        <v>1495444.7</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1733798.4347</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2218664.53868</v>
+        <v>2238192.60124</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2023789.0878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2035738.61145</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3957320.233</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>693857.04035</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>712476.0873100001</v>
+        <v>714697.7746600001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1647621.54787</v>
+        <v>1648692.18577</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1383199.08183</v>
+        <v>1384250.67649</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1160329.39539</v>
+        <v>1175053.14313</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1484481.27469</v>
+        <v>1513452.25884</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1340628.10979</v>
+        <v>1417585.69693</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2240759.598160001</v>
+        <v>2369727.52728</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1631803.31426</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3645973.16011</v>
+        <v>3664985.60353</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2288029.71072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2305073.24025</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4384211.854</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>166305.07813</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>165483.17988</v>
+        <v>165512.69142</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>205957.89277</v>
+        <v>206002.75262</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>162458.57816</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>263438.88161</v>
+        <v>263575.09933</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>271455.50907</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>290934.1403099999</v>
+        <v>300701.55459</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>296676.73755</v>
+        <v>351230.60402</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>345801.00141</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>418095.97734</v>
+        <v>420748.3995100001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>502462.08928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>505121.08931</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>600370.093</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>184184.51181</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>177890.60797</v>
+        <v>179574.76909</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>150236.45392</v>
+        <v>150704.36479</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>185267.09539</v>
+        <v>185608.46056</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>203536.40567</v>
+        <v>204197.89478</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>222879.08843</v>
+        <v>223062.9809</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>197270.59372</v>
+        <v>203407.58975</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>256851.08576</v>
+        <v>272204.0161299999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>286945.35574</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>645004.01424</v>
+        <v>645200.9793</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>397215.54503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>397388.4010299999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>791461.5600000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>343367.45041</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>369102.29946</v>
+        <v>369610.31415</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1291427.20118</v>
+        <v>1291985.06836</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1035473.40828</v>
+        <v>1036183.63777</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>693354.1081099999</v>
+        <v>707280.14902</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>990146.6771900001</v>
+        <v>1018933.76887</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>852423.37576</v>
+        <v>913476.5525899999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1687231.77485</v>
+        <v>1746292.90713</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>999056.95711</v>
+        <v>999056.9571099998</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2582873.16853</v>
+        <v>2599036.224720001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1388352.07641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1402563.74991</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2992380.201</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>2835441.15744</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2781398.17034</v>
+        <v>2771060.584830001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1785420.50772</v>
+        <v>1773773.18338</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3407728.35959</v>
+        <v>3417507.88214</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1922589.27159</v>
+        <v>2147080.17788</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3929911.981149999</v>
+        <v>4276054.83788</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3258107.46012</v>
+        <v>3761566.87537</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3760053.7701</v>
+        <v>4801410.018620001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>7880794.132290001</v>
+        <v>7880794.13229</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4382787.22584</v>
+        <v>4415066.272770001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>17313321.78296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>17311894.19855</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>16137115.144</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>517720.2232099999</v>
+        <v>517720.22321</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>555591.2019199999</v>
+        <v>555595.63033</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>557061.7170200001</v>
+        <v>557070.39737</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>735207.6920599999</v>
+        <v>736853.2204000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>664538.52961</v>
+        <v>690395.78139</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>764447.82427</v>
+        <v>824686.4626</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>861764.0164399999</v>
+        <v>930938.14799</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>979596.67961</v>
+        <v>1097429.35131</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1402684.99276</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1711640.4166</v>
+        <v>1721808.13761</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2212607.57491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2224349.03005</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2830719.73</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2317720.934229999</v>
+        <v>2317720.93423</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2225806.96842</v>
+        <v>2215464.9545</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1228358.7907</v>
+        <v>1216702.78601</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2672520.66753</v>
+        <v>2680654.66174</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1258050.74198</v>
+        <v>1456684.39649</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3165464.15688</v>
+        <v>3451368.375279999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2396343.44368</v>
+        <v>2830628.72738</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2780457.09049</v>
+        <v>3703980.66731</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>6478109.139529999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2671146.809240001</v>
+        <v>2693258.13516</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15100714.20805</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15087545.1685</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>13306395.414</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>9829</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>10171</v>
+        <v>10174</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>10487</v>
+        <v>10493</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10800</v>
+        <v>10813</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>11236</v>
+        <v>11270</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>11399</v>
+        <v>11455</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>11704</v>
+        <v>11871</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>12341</v>
+        <v>12465</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>13133</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>12484</v>
+        <v>13813</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>12924</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>14806</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>16024</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>